--- a/API Files/Acuity Research/Account.xlsx
+++ b/API Files/Acuity Research/Account.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Namita\git\PE4.7Automation\API Files\Acuity Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Navatar\git\PE4.7Automation\API Files\Acuity Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{8CAADDD2-92B1-4B61-B7BE-69F6547264CC}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="13140" windowWidth="24240" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
-    <sheet name="Account" r:id="rId1" sheetId="1"/>
+    <sheet name="Account" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="589">
   <si>
     <t>Companyfirm NSAdmin Record01</t>
   </si>
@@ -1279,27 +1278,15 @@
     <t>POCOfirm NSUser Record05</t>
   </si>
   <si>
-    <t>Tata Motors ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? record Tata Motors ~!@#$%^&amp;* record</t>
-  </si>
-  <si>
     <t>Tata Motors ~!@#$%^&amp;*()_+=-[]{}\|;':",.&lt;&gt;/? record Tata Motors ~!@#$%^&amp;* record</t>
   </si>
   <si>
-    <t>Reliance Industries ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? Limited Reliance Industries</t>
-  </si>
-  <si>
     <t>Reliance Industries ~!@#$%^&amp;*()_+=-[]{}\|;':",.&lt;&gt;/? Limited Reliance Industries</t>
   </si>
   <si>
-    <t>Mahindra group of companies ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/?group of companies</t>
-  </si>
-  <si>
     <t>Mahindra group of companies ~!@#$%^&amp;*()_+=-[]{}\|;':",.&lt;&gt;/?group of companies</t>
   </si>
   <si>
-    <t>Bharat Heavy Eletrical Limited ~!@#$%^&amp;*()_+=-[]{}|;':,.&lt;&gt;/? BHEL ~!@#$%^&amp;*()'</t>
-  </si>
-  <si>
     <t>Bharat Heavy Eletrical Limited ~!@#$%^&amp;*()_+=-[]{}\|;':",.&lt;&gt;/? BHEL ~!@#$%^&amp;*()'</t>
   </si>
   <si>
@@ -1594,33 +1581,12 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>Custom_Institution_Phone__c</t>
-  </si>
-  <si>
-    <t>Custom_Institution_Text__c</t>
-  </si>
-  <si>
-    <t>Custom_Institution_TA__c</t>
-  </si>
-  <si>
-    <t>Custom_Institution_LTA__c</t>
-  </si>
-  <si>
-    <t>Custom_Institution_RTA__c</t>
-  </si>
-  <si>
     <t>BillingCity</t>
   </si>
   <si>
     <t>AccountNumber</t>
   </si>
   <si>
-    <t>Custom_Institution_Email__c</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
     <t>ParentId</t>
   </si>
   <si>
@@ -1790,14 +1756,43 @@
   </si>
   <si>
     <t>Limited Partner</t>
+  </si>
+  <si>
+    <t>Custom_Firm_Email__c</t>
+  </si>
+  <si>
+    <t>Custom_Firm_Phone__c</t>
+  </si>
+  <si>
+    <t>Custom_Firm_Text__c</t>
+  </si>
+  <si>
+    <t>Custom_Firm_TA__c</t>
+  </si>
+  <si>
+    <t>Custom_Firm_LTA__c</t>
+  </si>
+  <si>
+    <t>Custom_Firm_RTA__c</t>
+  </si>
+  <si>
+    <t>Tata Motors Special Characters</t>
+  </si>
+  <si>
+    <t>Reliance Industries Special Characters</t>
+  </si>
+  <si>
+    <t>Mahindra group of companies Special Characters</t>
+  </si>
+  <si>
+    <t>Bharat Heavy Eletrical Limited Special Characters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1939,12 +1934,22 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <color rgb="FF181818"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF181818"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF444444"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2244,103 +2249,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="7" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="10" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="11" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="12" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="13" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="16" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0"/>
+  <cellStyleXfs count="42">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="42"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle builtinId="30" customBuiltin="1" name="20% - Accent1" xfId="19"/>
-    <cellStyle builtinId="34" customBuiltin="1" name="20% - Accent2" xfId="23"/>
-    <cellStyle builtinId="38" customBuiltin="1" name="20% - Accent3" xfId="27"/>
-    <cellStyle builtinId="42" customBuiltin="1" name="20% - Accent4" xfId="31"/>
-    <cellStyle builtinId="46" customBuiltin="1" name="20% - Accent5" xfId="35"/>
-    <cellStyle builtinId="50" customBuiltin="1" name="20% - Accent6" xfId="39"/>
-    <cellStyle builtinId="31" customBuiltin="1" name="40% - Accent1" xfId="20"/>
-    <cellStyle builtinId="35" customBuiltin="1" name="40% - Accent2" xfId="24"/>
-    <cellStyle builtinId="39" customBuiltin="1" name="40% - Accent3" xfId="28"/>
-    <cellStyle builtinId="43" customBuiltin="1" name="40% - Accent4" xfId="32"/>
-    <cellStyle builtinId="47" customBuiltin="1" name="40% - Accent5" xfId="36"/>
-    <cellStyle builtinId="51" customBuiltin="1" name="40% - Accent6" xfId="40"/>
-    <cellStyle builtinId="32" customBuiltin="1" name="60% - Accent1" xfId="21"/>
-    <cellStyle builtinId="36" customBuiltin="1" name="60% - Accent2" xfId="25"/>
-    <cellStyle builtinId="40" customBuiltin="1" name="60% - Accent3" xfId="29"/>
-    <cellStyle builtinId="44" customBuiltin="1" name="60% - Accent4" xfId="33"/>
-    <cellStyle builtinId="48" customBuiltin="1" name="60% - Accent5" xfId="37"/>
-    <cellStyle builtinId="52" customBuiltin="1" name="60% - Accent6" xfId="41"/>
-    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="18"/>
-    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="22"/>
-    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="26"/>
-    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="30"/>
-    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="34"/>
-    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="38"/>
-    <cellStyle builtinId="27" customBuiltin="1" name="Bad" xfId="7"/>
-    <cellStyle builtinId="22" customBuiltin="1" name="Calculation" xfId="11"/>
-    <cellStyle builtinId="23" customBuiltin="1" name="Check Cell" xfId="13"/>
-    <cellStyle builtinId="53" customBuiltin="1" name="Explanatory Text" xfId="16"/>
-    <cellStyle builtinId="26" customBuiltin="1" name="Good" xfId="6"/>
-    <cellStyle builtinId="16" customBuiltin="1" name="Heading 1" xfId="2"/>
-    <cellStyle builtinId="17" customBuiltin="1" name="Heading 2" xfId="3"/>
-    <cellStyle builtinId="18" customBuiltin="1" name="Heading 3" xfId="4"/>
-    <cellStyle builtinId="19" customBuiltin="1" name="Heading 4" xfId="5"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="42"/>
-    <cellStyle builtinId="20" customBuiltin="1" name="Input" xfId="9"/>
-    <cellStyle builtinId="24" customBuiltin="1" name="Linked Cell" xfId="12"/>
-    <cellStyle builtinId="28" customBuiltin="1" name="Neutral" xfId="8"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="10" customBuiltin="1" name="Note" xfId="15"/>
-    <cellStyle builtinId="21" customBuiltin="1" name="Output" xfId="10"/>
-    <cellStyle builtinId="15" customBuiltin="1" name="Title" xfId="1"/>
-    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="17"/>
-    <cellStyle builtinId="11" customBuiltin="1" name="Warning Text" xfId="14"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2357,10 +2365,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2395,7 +2403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2447,7 +2455,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2558,21 +2566,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2589,7 +2597,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2641,150 +2649,147 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC107" workbookViewId="0">
-      <selection activeCell="AE107" sqref="AE1:AE1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="74.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="39.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="130.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="46.5703125" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="74.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="130.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="28.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="37.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="42.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="46.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="45.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I1" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>508</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>520</v>
+      </c>
+      <c r="M1" t="s">
         <v>509</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>510</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>511</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>512</v>
       </c>
-      <c r="L1" t="s">
-        <v>529</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>513</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>514</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>515</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>516</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>517</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>518</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>519</v>
       </c>
-      <c r="T1" t="s">
-        <v>520</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>521</v>
       </c>
-      <c r="V1" t="s">
-        <v>522</v>
-      </c>
-      <c r="W1" t="s">
-        <v>523</v>
-      </c>
-      <c r="X1" t="s">
-        <v>530</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>531</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>525</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>526</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>527</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>532</v>
-      </c>
+      <c r="Y1" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2870,17 +2875,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>532</v>
-      </c>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F3">
@@ -2959,10 +2961,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>532</v>
-      </c>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>26</v>
       </c>
@@ -3048,10 +3047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>532</v>
-      </c>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>32</v>
       </c>
@@ -3137,10 +3133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>532</v>
-      </c>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>38</v>
       </c>
@@ -3226,10 +3219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>532</v>
-      </c>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -3315,10 +3305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>532</v>
-      </c>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>50</v>
       </c>
@@ -3404,10 +3391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>532</v>
-      </c>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>56</v>
       </c>
@@ -3493,10 +3477,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>532</v>
-      </c>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>62</v>
       </c>
@@ -3582,10 +3563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>532</v>
-      </c>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>67</v>
       </c>
@@ -3671,10 +3649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>532</v>
-      </c>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>73</v>
       </c>
@@ -3760,10 +3735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>532</v>
-      </c>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>91</v>
       </c>
@@ -3849,10 +3821,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>532</v>
-      </c>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>96</v>
       </c>
@@ -3938,10 +3907,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>532</v>
-      </c>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>101</v>
       </c>
@@ -4027,10 +3993,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>532</v>
-      </c>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>106</v>
       </c>
@@ -4116,10 +4079,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>532</v>
-      </c>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>111</v>
       </c>
@@ -4205,10 +4165,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>532</v>
-      </c>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>116</v>
       </c>
@@ -4294,10 +4251,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>532</v>
-      </c>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>121</v>
       </c>
@@ -4383,10 +4337,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>532</v>
-      </c>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>126</v>
       </c>
@@ -4472,10 +4423,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>532</v>
-      </c>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>131</v>
       </c>
@@ -4561,10 +4509,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>532</v>
-      </c>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>136</v>
       </c>
@@ -4650,10 +4595,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>532</v>
-      </c>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>155</v>
       </c>
@@ -4739,10 +4681,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>532</v>
-      </c>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>160</v>
       </c>
@@ -4828,10 +4767,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>532</v>
-      </c>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>165</v>
       </c>
@@ -4917,10 +4853,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>532</v>
-      </c>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>170</v>
       </c>
@@ -5006,10 +4939,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>532</v>
-      </c>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>175</v>
       </c>
@@ -5095,10 +5025,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>532</v>
-      </c>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>180</v>
       </c>
@@ -5184,10 +5111,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>532</v>
-      </c>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>185</v>
       </c>
@@ -5273,10 +5197,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>532</v>
-      </c>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>190</v>
       </c>
@@ -5362,10 +5283,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>532</v>
-      </c>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>195</v>
       </c>
@@ -5451,10 +5369,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>532</v>
-      </c>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>200</v>
       </c>
@@ -5540,10 +5455,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>532</v>
-      </c>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>217</v>
       </c>
@@ -5629,10 +5541,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>532</v>
-      </c>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>222</v>
       </c>
@@ -5718,10 +5627,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>532</v>
-      </c>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>227</v>
       </c>
@@ -5807,10 +5713,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>532</v>
-      </c>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>232</v>
       </c>
@@ -5896,10 +5799,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>532</v>
-      </c>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>237</v>
       </c>
@@ -5985,10 +5885,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>532</v>
-      </c>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>242</v>
       </c>
@@ -6074,10 +5971,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>532</v>
-      </c>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>247</v>
       </c>
@@ -6163,10 +6057,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>532</v>
-      </c>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>252</v>
       </c>
@@ -6252,10 +6143,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>532</v>
-      </c>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>257</v>
       </c>
@@ -6341,10 +6229,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>532</v>
-      </c>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>262</v>
       </c>
@@ -6430,10 +6315,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>532</v>
-      </c>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>279</v>
       </c>
@@ -6519,10 +6401,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>532</v>
-      </c>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>284</v>
       </c>
@@ -6608,10 +6487,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>532</v>
-      </c>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>289</v>
       </c>
@@ -6697,10 +6573,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>532</v>
-      </c>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>294</v>
       </c>
@@ -6786,10 +6659,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>532</v>
-      </c>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>299</v>
       </c>
@@ -6875,10 +6745,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>532</v>
-      </c>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>304</v>
       </c>
@@ -6964,10 +6831,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>532</v>
-      </c>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>309</v>
       </c>
@@ -7053,10 +6917,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>532</v>
-      </c>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>314</v>
       </c>
@@ -7142,10 +7003,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>532</v>
-      </c>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>319</v>
       </c>
@@ -7231,10 +7089,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>532</v>
-      </c>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>324</v>
       </c>
@@ -7320,10 +7175,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>532</v>
-      </c>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>339</v>
       </c>
@@ -7409,10 +7261,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>532</v>
-      </c>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>344</v>
       </c>
@@ -7498,10 +7347,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>532</v>
-      </c>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>349</v>
       </c>
@@ -7587,10 +7433,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>532</v>
-      </c>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>354</v>
       </c>
@@ -7676,10 +7519,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>532</v>
-      </c>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>359</v>
       </c>
@@ -7765,10 +7605,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>532</v>
-      </c>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>364</v>
       </c>
@@ -7854,10 +7691,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>532</v>
-      </c>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>369</v>
       </c>
@@ -7943,10 +7777,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>532</v>
-      </c>
+    <row r="60" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>374</v>
       </c>
@@ -8032,10 +7863,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>532</v>
-      </c>
+    <row r="61" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>379</v>
       </c>
@@ -8121,10 +7949,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>532</v>
-      </c>
+    <row r="62" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>384</v>
       </c>
@@ -8210,10 +8035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>532</v>
-      </c>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>385</v>
       </c>
@@ -8299,10 +8121,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>532</v>
-      </c>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>386</v>
       </c>
@@ -8388,10 +8207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>532</v>
-      </c>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>387</v>
       </c>
@@ -8477,10 +8293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>532</v>
-      </c>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>388</v>
       </c>
@@ -8566,10 +8379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>532</v>
-      </c>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>389</v>
       </c>
@@ -8655,10 +8465,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>532</v>
-      </c>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>390</v>
       </c>
@@ -8744,10 +8551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>532</v>
-      </c>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>391</v>
       </c>
@@ -8833,10 +8637,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>532</v>
-      </c>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>392</v>
       </c>
@@ -8922,10 +8723,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>532</v>
-      </c>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>393</v>
       </c>
@@ -9011,10 +8809,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>532</v>
-      </c>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>394</v>
       </c>
@@ -9100,10 +8895,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>532</v>
-      </c>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>395</v>
       </c>
@@ -9189,10 +8981,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>532</v>
-      </c>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>396</v>
       </c>
@@ -9278,10 +9067,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>532</v>
-      </c>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>397</v>
       </c>
@@ -9367,10 +9153,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>532</v>
-      </c>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>398</v>
       </c>
@@ -9456,10 +9239,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>532</v>
-      </c>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>399</v>
       </c>
@@ -9545,10 +9325,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>532</v>
-      </c>
+    <row r="78" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>400</v>
       </c>
@@ -9634,10 +9411,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>532</v>
-      </c>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>401</v>
       </c>
@@ -9723,10 +9497,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>532</v>
-      </c>
+    <row r="80" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>402</v>
       </c>
@@ -9812,10 +9583,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>532</v>
-      </c>
+    <row r="81" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>403</v>
       </c>
@@ -9901,10 +9669,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>532</v>
-      </c>
+    <row r="82" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>404</v>
       </c>
@@ -9990,10 +9755,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>532</v>
-      </c>
+    <row r="83" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>405</v>
       </c>
@@ -10079,10 +9841,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>532</v>
-      </c>
+    <row r="84" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>406</v>
       </c>
@@ -10168,10 +9927,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>532</v>
-      </c>
+    <row r="85" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>407</v>
       </c>
@@ -10257,10 +10013,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>532</v>
-      </c>
+    <row r="86" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
         <v>408</v>
       </c>
@@ -10346,10 +10099,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>532</v>
-      </c>
+    <row r="87" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>409</v>
       </c>
@@ -10435,10 +10185,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>532</v>
-      </c>
+    <row r="88" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>415</v>
       </c>
@@ -10524,10 +10271,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>532</v>
-      </c>
+    <row r="89" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>416</v>
       </c>
@@ -10613,10 +10357,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>532</v>
-      </c>
+    <row r="90" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>417</v>
       </c>
@@ -10702,10 +10443,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>532</v>
-      </c>
+    <row r="91" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>418</v>
       </c>
@@ -10791,12 +10529,9 @@
         <v>414</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>532</v>
-      </c>
+    <row r="92" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>419</v>
+        <v>585</v>
       </c>
       <c r="C92" t="s">
         <v>137</v>
@@ -10814,15 +10549,12 @@
         <v>139</v>
       </c>
       <c r="U92" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>532</v>
-      </c>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="93" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>421</v>
+        <v>586</v>
       </c>
       <c r="C93" t="s">
         <v>137</v>
@@ -10840,15 +10572,12 @@
         <v>139</v>
       </c>
       <c r="U93" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>532</v>
-      </c>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="94" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>423</v>
+        <v>587</v>
       </c>
       <c r="C94" t="s">
         <v>137</v>
@@ -10866,15 +10595,12 @@
         <v>139</v>
       </c>
       <c r="U94" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>532</v>
-      </c>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="95" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>425</v>
+        <v>588</v>
       </c>
       <c r="C95" t="s">
         <v>137</v>
@@ -10892,172 +10618,127 @@
         <v>139</v>
       </c>
       <c r="U95" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>532</v>
-      </c>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="96" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C96" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>532</v>
-      </c>
+    <row r="97" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C97" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>532</v>
-      </c>
+    <row r="98" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C98" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>532</v>
-      </c>
+    <row r="99" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C99" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>532</v>
-      </c>
+    <row r="100" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C100" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>532</v>
-      </c>
+    <row r="101" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C101" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>532</v>
-      </c>
+    <row r="102" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C102" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>532</v>
-      </c>
+    <row r="103" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C103" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>532</v>
-      </c>
+    <row r="104" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>532</v>
-      </c>
+    <row r="105" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>532</v>
-      </c>
+    <row r="106" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>532</v>
-      </c>
+    <row r="107" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>532</v>
-      </c>
+    <row r="108" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>532</v>
-      </c>
+    <row r="109" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>532</v>
-      </c>
+    <row r="110" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C110" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E110" t="s">
         <v>2</v>
@@ -11069,16 +10750,16 @@
         <v>3</v>
       </c>
       <c r="H110" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I110">
         <v>7898789878</v>
       </c>
       <c r="J110" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K110" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L110" t="s">
         <v>78</v>
@@ -11093,7 +10774,7 @@
         <v>77777</v>
       </c>
       <c r="P110" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="Q110" t="s">
         <v>82</v>
@@ -11108,7 +10789,7 @@
         <v>77777</v>
       </c>
       <c r="U110" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V110" t="s">
         <v>85</v>
@@ -11120,33 +10801,30 @@
         <v>89675856</v>
       </c>
       <c r="Y110" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Z110">
         <v>2222222002</v>
       </c>
       <c r="AA110" t="s">
+        <v>445</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="111" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
         <v>449</v>
       </c>
-      <c r="AB110" t="s">
-        <v>450</v>
-      </c>
-      <c r="AC110" t="s">
-        <v>451</v>
-      </c>
-      <c r="AD110" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>532</v>
-      </c>
-      <c r="B111" t="s">
-        <v>453</v>
-      </c>
       <c r="C111" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E111" t="s">
         <v>21</v>
@@ -11158,16 +10836,16 @@
         <v>3</v>
       </c>
       <c r="H111" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I111">
         <v>7898789878</v>
       </c>
       <c r="J111" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K111" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L111" t="s">
         <v>78</v>
@@ -11182,7 +10860,7 @@
         <v>77777</v>
       </c>
       <c r="P111" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="Q111" t="s">
         <v>82</v>
@@ -11197,7 +10875,7 @@
         <v>77777</v>
       </c>
       <c r="U111" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V111" t="s">
         <v>85</v>
@@ -11209,33 +10887,30 @@
         <v>89675856</v>
       </c>
       <c r="Y111" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="Z111">
         <v>2222222002</v>
       </c>
       <c r="AA111" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AB111" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AC111" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AD111" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>532</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="112" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C112" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E112" t="s">
         <v>27</v>
@@ -11247,16 +10922,16 @@
         <v>3</v>
       </c>
       <c r="H112" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I112">
         <v>7898789878</v>
       </c>
       <c r="J112" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K112" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L112" t="s">
         <v>78</v>
@@ -11271,7 +10946,7 @@
         <v>77777</v>
       </c>
       <c r="P112" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Q112" t="s">
         <v>82</v>
@@ -11286,7 +10961,7 @@
         <v>77777</v>
       </c>
       <c r="U112" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V112" t="s">
         <v>85</v>
@@ -11298,33 +10973,30 @@
         <v>89675856</v>
       </c>
       <c r="Y112" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Z112">
         <v>2222222002</v>
       </c>
       <c r="AA112" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AB112" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AC112" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AD112" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>532</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="113" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C113" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E113" t="s">
         <v>33</v>
@@ -11336,16 +11008,16 @@
         <v>3</v>
       </c>
       <c r="H113" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I113">
         <v>7898789878</v>
       </c>
       <c r="J113" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K113" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L113" t="s">
         <v>78</v>
@@ -11360,7 +11032,7 @@
         <v>77777</v>
       </c>
       <c r="P113" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Q113" t="s">
         <v>82</v>
@@ -11375,7 +11047,7 @@
         <v>77777</v>
       </c>
       <c r="U113" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V113" t="s">
         <v>85</v>
@@ -11387,33 +11059,30 @@
         <v>89675856</v>
       </c>
       <c r="Y113" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="Z113">
         <v>2222222002</v>
       </c>
       <c r="AA113" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AB113" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AC113" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AD113" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>532</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="114" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C114" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E114" t="s">
         <v>39</v>
@@ -11425,16 +11094,16 @@
         <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I114">
         <v>7898789878</v>
       </c>
       <c r="J114" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K114" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L114" t="s">
         <v>78</v>
@@ -11449,7 +11118,7 @@
         <v>77777</v>
       </c>
       <c r="P114" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q114" t="s">
         <v>82</v>
@@ -11464,7 +11133,7 @@
         <v>77777</v>
       </c>
       <c r="U114" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V114" t="s">
         <v>85</v>
@@ -11476,33 +11145,30 @@
         <v>89675856</v>
       </c>
       <c r="Y114" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Z114">
         <v>2222222002</v>
       </c>
       <c r="AA114" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AB114" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AC114" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AD114" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>532</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="115" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C115" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E115" t="s">
         <v>45</v>
@@ -11514,16 +11180,16 @@
         <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I115">
         <v>9898989898</v>
       </c>
       <c r="J115" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K115" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L115" t="s">
         <v>78</v>
@@ -11538,7 +11204,7 @@
         <v>77777</v>
       </c>
       <c r="P115" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q115" t="s">
         <v>82</v>
@@ -11553,7 +11219,7 @@
         <v>77777</v>
       </c>
       <c r="U115" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V115" t="s">
         <v>85</v>
@@ -11565,33 +11231,30 @@
         <v>89675856</v>
       </c>
       <c r="Y115" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Z115">
         <v>2222222002</v>
       </c>
       <c r="AA115" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AB115" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AC115" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AD115" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>532</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="116" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C116" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E116" t="s">
         <v>51</v>
@@ -11603,16 +11266,16 @@
         <v>3</v>
       </c>
       <c r="H116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I116">
         <v>9898989898</v>
       </c>
       <c r="J116" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K116" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L116" t="s">
         <v>78</v>
@@ -11627,7 +11290,7 @@
         <v>77777</v>
       </c>
       <c r="P116" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q116" t="s">
         <v>82</v>
@@ -11642,7 +11305,7 @@
         <v>77777</v>
       </c>
       <c r="U116" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V116" t="s">
         <v>85</v>
@@ -11654,33 +11317,30 @@
         <v>89675856</v>
       </c>
       <c r="Y116" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="Z116">
         <v>2222222002</v>
       </c>
       <c r="AA116" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AB116" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AC116" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AD116" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>532</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="117" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C117" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E117" t="s">
         <v>57</v>
@@ -11692,16 +11352,16 @@
         <v>3</v>
       </c>
       <c r="H117" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I117">
         <v>9898989898</v>
       </c>
       <c r="J117" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K117" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L117" t="s">
         <v>78</v>
@@ -11716,7 +11376,7 @@
         <v>77777</v>
       </c>
       <c r="P117" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Q117" t="s">
         <v>82</v>
@@ -11731,7 +11391,7 @@
         <v>77777</v>
       </c>
       <c r="U117" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V117" t="s">
         <v>85</v>
@@ -11743,33 +11403,30 @@
         <v>89675856</v>
       </c>
       <c r="Y117" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="Z117">
         <v>2222222002</v>
       </c>
       <c r="AA117" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AB117" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AC117" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AD117" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>532</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="118" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C118" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E118" t="s">
         <v>1</v>
@@ -11781,16 +11438,16 @@
         <v>3</v>
       </c>
       <c r="H118" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I118">
         <v>9898989898</v>
       </c>
       <c r="J118" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="K118" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L118" t="s">
         <v>78</v>
@@ -11805,7 +11462,7 @@
         <v>77777</v>
       </c>
       <c r="P118" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="Q118" t="s">
         <v>82</v>
@@ -11820,7 +11477,7 @@
         <v>77777</v>
       </c>
       <c r="U118" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V118" t="s">
         <v>85</v>
@@ -11832,33 +11489,30 @@
         <v>89675856</v>
       </c>
       <c r="Y118" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Z118">
         <v>2222222002</v>
       </c>
       <c r="AA118" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AB118" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AC118" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AD118" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>532</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="119" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C119" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E119" t="s">
         <v>68</v>
@@ -11870,16 +11524,16 @@
         <v>3</v>
       </c>
       <c r="H119" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I119">
         <v>9898989898</v>
       </c>
       <c r="J119" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K119" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L119" t="s">
         <v>78</v>
@@ -11894,7 +11548,7 @@
         <v>77777</v>
       </c>
       <c r="P119" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="Q119" t="s">
         <v>82</v>
@@ -11909,7 +11563,7 @@
         <v>77777</v>
       </c>
       <c r="U119" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V119" t="s">
         <v>85</v>
@@ -11921,33 +11575,30 @@
         <v>89675856</v>
       </c>
       <c r="Y119" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="Z119">
         <v>2222222002</v>
       </c>
       <c r="AA119" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AB119" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AC119" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AD119" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>532</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="120" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C120" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E120" t="s">
         <v>2</v>
@@ -11965,10 +11616,10 @@
         <v>4343434343</v>
       </c>
       <c r="J120" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K120" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L120" t="s">
         <v>78</v>
@@ -11983,7 +11634,7 @@
         <v>77777</v>
       </c>
       <c r="P120" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="Q120" t="s">
         <v>82</v>
@@ -11998,7 +11649,7 @@
         <v>77777</v>
       </c>
       <c r="U120" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V120" t="s">
         <v>85</v>
@@ -12010,33 +11661,30 @@
         <v>89675856</v>
       </c>
       <c r="Y120" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Z120">
         <v>2222222002</v>
       </c>
       <c r="AA120" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AB120" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AC120" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AD120" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>532</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="121" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C121" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E121" t="s">
         <v>21</v>
@@ -12054,10 +11702,10 @@
         <v>4343434343</v>
       </c>
       <c r="J121" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K121" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L121" t="s">
         <v>78</v>
@@ -12072,7 +11720,7 @@
         <v>77777</v>
       </c>
       <c r="P121" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="Q121" t="s">
         <v>82</v>
@@ -12087,7 +11735,7 @@
         <v>77777</v>
       </c>
       <c r="U121" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V121" t="s">
         <v>85</v>
@@ -12099,33 +11747,30 @@
         <v>89675856</v>
       </c>
       <c r="Y121" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="Z121">
         <v>2222222002</v>
       </c>
       <c r="AA121" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AB121" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AC121" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AD121" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>532</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="122" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C122" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E122" t="s">
         <v>27</v>
@@ -12143,10 +11788,10 @@
         <v>4343434343</v>
       </c>
       <c r="J122" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K122" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L122" t="s">
         <v>78</v>
@@ -12161,7 +11806,7 @@
         <v>77777</v>
       </c>
       <c r="P122" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="Q122" t="s">
         <v>82</v>
@@ -12176,7 +11821,7 @@
         <v>77777</v>
       </c>
       <c r="U122" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V122" t="s">
         <v>85</v>
@@ -12188,33 +11833,30 @@
         <v>89675856</v>
       </c>
       <c r="Y122" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Z122">
         <v>2222222002</v>
       </c>
       <c r="AA122" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AB122" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AC122" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AD122" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>532</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="123" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C123" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E123" t="s">
         <v>33</v>
@@ -12232,10 +11874,10 @@
         <v>4343434343</v>
       </c>
       <c r="J123" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K123" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L123" t="s">
         <v>78</v>
@@ -12250,7 +11892,7 @@
         <v>77777</v>
       </c>
       <c r="P123" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="Q123" t="s">
         <v>82</v>
@@ -12265,7 +11907,7 @@
         <v>77777</v>
       </c>
       <c r="U123" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V123" t="s">
         <v>85</v>
@@ -12277,33 +11919,30 @@
         <v>89675856</v>
       </c>
       <c r="Y123" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="Z123">
         <v>2222222002</v>
       </c>
       <c r="AA123" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AB123" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AC123" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AD123" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>532</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="124" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C124" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E124" t="s">
         <v>39</v>
@@ -12321,10 +11960,10 @@
         <v>4343434343</v>
       </c>
       <c r="J124" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K124" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L124" t="s">
         <v>78</v>
@@ -12339,7 +11978,7 @@
         <v>77777</v>
       </c>
       <c r="P124" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q124" t="s">
         <v>82</v>
@@ -12354,7 +11993,7 @@
         <v>77777</v>
       </c>
       <c r="U124" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V124" t="s">
         <v>85</v>
@@ -12366,33 +12005,30 @@
         <v>89675856</v>
       </c>
       <c r="Y124" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="Z124">
         <v>2222222002</v>
       </c>
       <c r="AA124" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AB124" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AC124" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="AD124" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>532</v>
-      </c>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="125" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>534</v>
-      </c>
-      <c r="C125" t="s">
-        <v>589</v>
+        <v>523</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="D125" t="s">
         <v>136</v>
@@ -12413,10 +12049,10 @@
         <v>1212121212</v>
       </c>
       <c r="J125" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="K125" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="L125" t="s">
         <v>7</v>
@@ -12431,7 +12067,7 @@
         <v>11111</v>
       </c>
       <c r="P125" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="Q125" t="s">
         <v>11</v>
@@ -12446,7 +12082,7 @@
         <v>11111</v>
       </c>
       <c r="U125" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="V125" t="s">
         <v>14</v>
@@ -12458,33 +12094,30 @@
         <v>32423423</v>
       </c>
       <c r="Y125" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="Z125">
         <v>1234567810</v>
       </c>
       <c r="AA125" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AB125" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="AC125" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AD125" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
         <v>532</v>
       </c>
+    </row>
+    <row r="126" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>544</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>589</v>
+        <v>533</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="D126" t="s">
         <v>155</v>
@@ -12505,10 +12138,10 @@
         <v>1212121212</v>
       </c>
       <c r="J126" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="K126" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="L126" t="s">
         <v>7</v>
@@ -12523,7 +12156,7 @@
         <v>11111</v>
       </c>
       <c r="P126" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="Q126" t="s">
         <v>11</v>
@@ -12538,7 +12171,7 @@
         <v>11111</v>
       </c>
       <c r="U126" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="V126" t="s">
         <v>14</v>
@@ -12550,33 +12183,30 @@
         <v>32423423</v>
       </c>
       <c r="Y126" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="Z126">
         <v>1234567810</v>
       </c>
       <c r="AA126" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AB126" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="AC126" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AD126" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
         <v>532</v>
       </c>
+    </row>
+    <row r="127" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>549</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>589</v>
+        <v>538</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="D127" t="s">
         <v>160</v>
@@ -12597,10 +12227,10 @@
         <v>1212121212</v>
       </c>
       <c r="J127" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="K127" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="L127" t="s">
         <v>7</v>
@@ -12615,7 +12245,7 @@
         <v>11111</v>
       </c>
       <c r="P127" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="Q127" t="s">
         <v>11</v>
@@ -12630,7 +12260,7 @@
         <v>11111</v>
       </c>
       <c r="U127" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="V127" t="s">
         <v>14</v>
@@ -12642,33 +12272,30 @@
         <v>32423423</v>
       </c>
       <c r="Y127" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="Z127">
         <v>1234567810</v>
       </c>
       <c r="AA127" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AB127" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="AC127" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AD127" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="128" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>532</v>
-      </c>
-      <c r="B128" t="s">
-        <v>554</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>589</v>
+      <c r="C128" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="D128" t="s">
         <v>165</v>
@@ -12689,10 +12316,10 @@
         <v>1212121212</v>
       </c>
       <c r="J128" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="K128" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="L128" t="s">
         <v>7</v>
@@ -12707,7 +12334,7 @@
         <v>11111</v>
       </c>
       <c r="P128" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="Q128" t="s">
         <v>11</v>
@@ -12722,7 +12349,7 @@
         <v>11111</v>
       </c>
       <c r="U128" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="V128" t="s">
         <v>14</v>
@@ -12734,33 +12361,30 @@
         <v>32423423</v>
       </c>
       <c r="Y128" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="Z128">
         <v>1234567810</v>
       </c>
       <c r="AA128" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AB128" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="AC128" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AD128" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="129" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
         <v>532</v>
       </c>
+    </row>
+    <row r="129" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>559</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>589</v>
+        <v>548</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="D129" t="s">
         <v>170</v>
@@ -12781,10 +12405,10 @@
         <v>1212121212</v>
       </c>
       <c r="J129" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="K129" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="L129" t="s">
         <v>7</v>
@@ -12799,7 +12423,7 @@
         <v>11111</v>
       </c>
       <c r="P129" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="Q129" t="s">
         <v>11</v>
@@ -12814,7 +12438,7 @@
         <v>11111</v>
       </c>
       <c r="U129" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="V129" t="s">
         <v>14</v>
@@ -12826,33 +12450,30 @@
         <v>32423423</v>
       </c>
       <c r="Y129" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="Z129">
         <v>1234567810</v>
       </c>
       <c r="AA129" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AB129" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="AC129" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AD129" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="130" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
         <v>532</v>
       </c>
+    </row>
+    <row r="130" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>564</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>589</v>
+        <v>553</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="D130" t="s">
         <v>136</v>
@@ -12873,10 +12494,10 @@
         <v>3434343434</v>
       </c>
       <c r="J130" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="K130" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="L130" t="s">
         <v>7</v>
@@ -12891,7 +12512,7 @@
         <v>11111</v>
       </c>
       <c r="P130" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="Q130" t="s">
         <v>11</v>
@@ -12906,7 +12527,7 @@
         <v>11111</v>
       </c>
       <c r="U130" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="V130" t="s">
         <v>14</v>
@@ -12918,33 +12539,30 @@
         <v>32423423</v>
       </c>
       <c r="Y130" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="Z130">
         <v>1234567810</v>
       </c>
       <c r="AA130" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AB130" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="AC130" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AD130" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="131" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
         <v>532</v>
       </c>
+    </row>
+    <row r="131" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>569</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>589</v>
+        <v>558</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="D131" t="s">
         <v>155</v>
@@ -12965,10 +12583,10 @@
         <v>3434343434</v>
       </c>
       <c r="J131" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="K131" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="L131" t="s">
         <v>7</v>
@@ -12983,7 +12601,7 @@
         <v>11111</v>
       </c>
       <c r="P131" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="Q131" t="s">
         <v>11</v>
@@ -12998,7 +12616,7 @@
         <v>11111</v>
       </c>
       <c r="U131" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="V131" t="s">
         <v>14</v>
@@ -13010,33 +12628,30 @@
         <v>32423423</v>
       </c>
       <c r="Y131" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="Z131">
         <v>1234567810</v>
       </c>
       <c r="AA131" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AB131" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="AC131" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AD131" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="132" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
         <v>532</v>
       </c>
+    </row>
+    <row r="132" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>574</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>589</v>
+        <v>563</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="D132" t="s">
         <v>160</v>
@@ -13057,10 +12672,10 @@
         <v>3434343434</v>
       </c>
       <c r="J132" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="K132" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="L132" t="s">
         <v>7</v>
@@ -13075,7 +12690,7 @@
         <v>11111</v>
       </c>
       <c r="P132" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="Q132" t="s">
         <v>11</v>
@@ -13090,7 +12705,7 @@
         <v>11111</v>
       </c>
       <c r="U132" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="V132" t="s">
         <v>14</v>
@@ -13102,33 +12717,30 @@
         <v>32423423</v>
       </c>
       <c r="Y132" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="Z132">
         <v>1234567810</v>
       </c>
       <c r="AA132" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AB132" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="AC132" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AD132" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="133" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
         <v>532</v>
       </c>
+    </row>
+    <row r="133" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>579</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>589</v>
+        <v>568</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="D133" t="s">
         <v>165</v>
@@ -13149,10 +12761,10 @@
         <v>3434343434</v>
       </c>
       <c r="J133" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="K133" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="L133" t="s">
         <v>7</v>
@@ -13167,7 +12779,7 @@
         <v>11111</v>
       </c>
       <c r="P133" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="Q133" t="s">
         <v>11</v>
@@ -13182,7 +12794,7 @@
         <v>11111</v>
       </c>
       <c r="U133" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="V133" t="s">
         <v>14</v>
@@ -13194,33 +12806,30 @@
         <v>32423423</v>
       </c>
       <c r="Y133" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="Z133">
         <v>1234567810</v>
       </c>
       <c r="AA133" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AB133" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="AC133" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AD133" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="134" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
         <v>532</v>
       </c>
+    </row>
+    <row r="134" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>584</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>589</v>
+        <v>573</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>578</v>
       </c>
       <c r="D134" t="s">
         <v>170</v>
@@ -13241,10 +12850,10 @@
         <v>3434343434</v>
       </c>
       <c r="J134" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="K134" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="L134" t="s">
         <v>7</v>
@@ -13259,7 +12868,7 @@
         <v>11111</v>
       </c>
       <c r="P134" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="Q134" t="s">
         <v>11</v>
@@ -13274,7 +12883,7 @@
         <v>11111</v>
       </c>
       <c r="U134" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="V134" t="s">
         <v>14</v>
@@ -13286,30 +12895,26 @@
         <v>32423423</v>
       </c>
       <c r="Y134" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="Z134">
         <v>1234567810</v>
       </c>
       <c r="AA134" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="AB134" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="AC134" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="AD134" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="https://pe43orgadmin--upgauto4.sandbox.lightning.force.com/lightning/setup/ObjectManager/Account/RecordTypes/012Hs000001JVJaIAO/view" r:id="rId1" ref="C126" xr:uid="{13CF759A-3FE8-44A5-A4BE-5262A0F938A1}"/>
-    <hyperlink display="https://pe43orgadmin--upgauto4.sandbox.lightning.force.com/lightning/setup/ObjectManager/Account/RecordTypes/012Hs000001JVJaIAO/view" r:id="rId2" ref="C127" xr:uid="{F1810424-B89F-47BE-BA33-139156587EF2}"/>
-    <hyperlink display="https://pe43orgadmin--upgauto4.sandbox.lightning.force.com/lightning/setup/ObjectManager/Account/RecordTypes/012Hs000001JVJaIAO/view" r:id="rId3" ref="C128:C134" xr:uid="{A368E871-ED6D-4348-AFAB-1935B279554E}"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>